--- a/markers-gcp-new-2022.02.04.xlsx
+++ b/markers-gcp-new-2022.02.04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. SfM\Metashape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\GitHub\Metashape-BulkProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26587433-12F3-49E9-B346-7166F534B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D0B2B-5783-4D20-8423-06A5A1B7B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="990" windowWidth="27450" windowHeight="12855" xr2:uid="{374045D6-0B20-4D57-AC60-09E68B99BF62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{374045D6-0B20-4D57-AC60-09E68B99BF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinate system" sheetId="5" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABADB807-DFBE-4E89-B560-CA60D28EA79B}">
   <dimension ref="F7:AE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,12 +1187,15 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="8"/>
       <c r="M8" t="s">
         <v>22</v>
       </c>
@@ -1202,12 +1205,15 @@
       <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="R8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="8"/>
       <c r="V8" t="s">
         <v>22</v>
       </c>
@@ -1219,12 +1225,15 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" t="s">
         <v>22</v>
       </c>
@@ -1234,12 +1243,15 @@
       <c r="P9" t="s">
         <v>18</v>
       </c>
-      <c r="R9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="8"/>
       <c r="V9" t="s">
         <v>22</v>
       </c>
@@ -1254,12 +1266,15 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="M10" t="s">
         <v>22</v>
       </c>
@@ -1269,12 +1284,15 @@
       <c r="P10" t="s">
         <v>18</v>
       </c>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="8"/>
       <c r="V10" t="s">
         <v>22</v>
       </c>
@@ -1286,12 +1304,15 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="8"/>
       <c r="M11" t="s">
         <v>22</v>
       </c>
@@ -1301,12 +1322,15 @@
       <c r="P11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="8"/>
       <c r="V11" t="s">
         <v>22</v>
       </c>
@@ -1318,12 +1342,15 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="8"/>
       <c r="M12" t="s">
         <v>22</v>
       </c>
@@ -1333,12 +1360,15 @@
       <c r="P12" t="s">
         <v>18</v>
       </c>
-      <c r="R12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="8"/>
       <c r="V12" t="s">
         <v>22</v>
       </c>
@@ -1350,12 +1380,15 @@
       <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="8"/>
       <c r="M13" t="s">
         <v>22</v>
       </c>
@@ -1365,12 +1398,15 @@
       <c r="P13" t="s">
         <v>18</v>
       </c>
-      <c r="R13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="8"/>
       <c r="V13" t="s">
         <v>22</v>
       </c>
@@ -1386,12 +1422,15 @@
       <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="8"/>
       <c r="M14" t="s">
         <v>22</v>
       </c>
@@ -1401,12 +1440,15 @@
       <c r="P14" t="s">
         <v>18</v>
       </c>
-      <c r="R14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="8"/>
       <c r="V14" t="s">
         <v>22</v>
       </c>
@@ -1418,12 +1460,15 @@
       <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="8"/>
       <c r="M15" t="s">
         <v>22</v>
       </c>
@@ -1433,12 +1478,15 @@
       <c r="P15" t="s">
         <v>18</v>
       </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" s="8"/>
       <c r="V15" t="s">
         <v>22</v>
       </c>
@@ -1450,12 +1498,15 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="8"/>
       <c r="M16" t="s">
         <v>22</v>
       </c>
@@ -1465,12 +1516,15 @@
       <c r="P16" t="s">
         <v>18</v>
       </c>
-      <c r="R16" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="8"/>
       <c r="V16" t="s">
         <v>22</v>
       </c>
@@ -1482,12 +1536,15 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="M17" t="s">
         <v>22</v>
       </c>
@@ -1497,12 +1554,15 @@
       <c r="P17" t="s">
         <v>18</v>
       </c>
-      <c r="R17" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="8"/>
       <c r="V17" t="s">
         <v>22</v>
       </c>
@@ -1514,12 +1574,15 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="8"/>
       <c r="M18" t="s">
         <v>22</v>
       </c>
@@ -1529,12 +1592,15 @@
       <c r="P18" t="s">
         <v>18</v>
       </c>
-      <c r="R18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="8"/>
       <c r="V18" t="s">
         <v>22</v>
       </c>
@@ -1546,12 +1612,15 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="8"/>
       <c r="M19" t="s">
         <v>22</v>
       </c>
@@ -1561,12 +1630,15 @@
       <c r="P19" t="s">
         <v>18</v>
       </c>
-      <c r="R19" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="8"/>
       <c r="V19" t="s">
         <v>22</v>
       </c>
@@ -1578,12 +1650,15 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="8"/>
       <c r="M20" t="s">
         <v>22</v>
       </c>
@@ -1593,12 +1668,15 @@
       <c r="P20" t="s">
         <v>18</v>
       </c>
-      <c r="R20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="8"/>
       <c r="V20" t="s">
         <v>22</v>
       </c>
@@ -1610,12 +1688,15 @@
       <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="8"/>
       <c r="M21" t="s">
         <v>22</v>
       </c>
@@ -1625,12 +1706,15 @@
       <c r="P21" t="s">
         <v>18</v>
       </c>
-      <c r="R21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="8"/>
       <c r="V21" t="s">
         <v>22</v>
       </c>
@@ -1642,12 +1726,15 @@
       <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>23</v>
-      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="8"/>
       <c r="M22" t="s">
         <v>22</v>
       </c>
@@ -1657,12 +1744,15 @@
       <c r="P22" t="s">
         <v>18</v>
       </c>
-      <c r="R22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="8"/>
       <c r="V22" t="s">
         <v>22</v>
       </c>
@@ -1674,12 +1764,15 @@
       <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="8"/>
       <c r="M23" t="s">
         <v>22</v>
       </c>
@@ -1689,12 +1782,15 @@
       <c r="P23" t="s">
         <v>18</v>
       </c>
-      <c r="R23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="8"/>
       <c r="V23" t="s">
         <v>22</v>
       </c>
@@ -1706,12 +1802,15 @@
       <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="8"/>
       <c r="M24" t="s">
         <v>22</v>
       </c>
@@ -1721,12 +1820,15 @@
       <c r="P24" t="s">
         <v>18</v>
       </c>
-      <c r="R24" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="8"/>
       <c r="V24" t="s">
         <v>22</v>
       </c>
@@ -1738,12 +1840,15 @@
       <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="8"/>
       <c r="M25" t="s">
         <v>22</v>
       </c>
@@ -1753,12 +1858,15 @@
       <c r="P25" t="s">
         <v>18</v>
       </c>
-      <c r="R25" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="8"/>
       <c r="V25" t="s">
         <v>22</v>
       </c>
@@ -1770,12 +1878,15 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="8"/>
       <c r="M26" t="s">
         <v>22</v>
       </c>
@@ -1785,12 +1896,15 @@
       <c r="P26" t="s">
         <v>18</v>
       </c>
-      <c r="R26" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="8"/>
       <c r="V26" t="s">
         <v>22</v>
       </c>
@@ -1802,12 +1916,15 @@
       <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="8"/>
       <c r="M27" t="s">
         <v>22</v>
       </c>
@@ -1817,12 +1934,15 @@
       <c r="P27" t="s">
         <v>18</v>
       </c>
-      <c r="R27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="8"/>
       <c r="V27" t="s">
         <v>22</v>
       </c>
@@ -1834,12 +1954,15 @@
       <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="8"/>
       <c r="M28" t="s">
         <v>22</v>
       </c>
@@ -1849,12 +1972,15 @@
       <c r="P28" t="s">
         <v>18</v>
       </c>
-      <c r="R28" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="8"/>
       <c r="V28" t="s">
         <v>22</v>
       </c>
@@ -1866,12 +1992,15 @@
       <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>23</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="8"/>
       <c r="M29" t="s">
         <v>22</v>
       </c>
@@ -1881,12 +2010,15 @@
       <c r="P29" t="s">
         <v>18</v>
       </c>
-      <c r="R29" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="8"/>
       <c r="V29" t="s">
         <v>22</v>
       </c>
